--- a/all_for_analysis/data_raw/Genus-level_data.xlsx
+++ b/all_for_analysis/data_raw/Genus-level_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki21\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Termite_sol_prop\all_for_analysis\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA17F40-6825-4886-9309-5F3DA032C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2142E4-D63E-4A0F-823F-A8EECFA26496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="162">
   <si>
     <t>Family</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>Nesting</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>soldier_prop</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -485,10 +481,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>soldier_prop</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>OP</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -634,6 +626,62 @@
   </si>
   <si>
     <t>Soldier_prop</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>n_morph</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hanus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Grasse 1982</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Febiana et al., 2023</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Luykx 1986</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Roonwal 1985</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ruelle 1972</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ensaf et al., 2003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adam and Mitchell 2009</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Raw 1983</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>polymorph_ref</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Soldier_prop</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Sol_size_to_imago</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -641,8 +689,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -712,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -729,6 +778,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1010,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1026,9 +1085,12 @@
     <col min="7" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,1937 +1104,2428 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
+      <c r="J2" s="12">
+        <f>4.092/2.468</f>
+        <v>1.6580226904376012</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1">
+      <c r="J3" s="4">
+        <v>1.546</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1">
       <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1">
+      <c r="J4" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1">
       <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1">
+      <c r="J5" s="4">
+        <v>1.048</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1">
       <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="J6" s="4">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1">
+      <c r="J7" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1">
+      <c r="J8" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="J9" s="4">
+        <v>1.526</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="4">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1">
+      <c r="J10" s="4">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="J11" s="4">
+        <v>1.198</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="4">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1">
+      <c r="J12" s="4">
+        <v>1.145</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="J13" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="4">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1">
+      <c r="J14" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="4">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1">
+      <c r="J15" s="4">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1">
+      <c r="J16" s="4">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="4">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1">
+      <c r="J17" s="4">
+        <v>1.528</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1">
+      <c r="J18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1">
       <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="J19" s="4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1">
       <c r="A20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1">
+      <c r="J20" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1">
       <c r="A21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1">
+      <c r="J21" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1">
+      <c r="J22" s="11">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1">
+      <c r="J23" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="4">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1">
+      <c r="J24" s="4">
+        <v>1.042</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="J25" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1">
+      <c r="J26" s="4">
+        <v>1.524</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1">
       <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1">
+      <c r="J27" s="4">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1">
       <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1">
+      <c r="J28" s="11">
+        <v>1.012</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1">
       <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1">
+      <c r="J29" s="4">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1">
+      <c r="J30" s="4">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="4">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1">
+      <c r="J31" s="11">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1">
       <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1">
+      <c r="J32" s="4">
+        <v>1.423</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="J34" s="4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="J35" s="4">
+        <v>1.107</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="J36" s="4">
+        <v>1.216</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="J37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="J38" s="11">
+        <v>1.492</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="J40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="4">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="J41" s="4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="J42" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="4">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="J43" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="5" customFormat="1">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="J44" s="4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" s="5" customFormat="1">
       <c r="A45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="4">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
+      <c r="J45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="5" customFormat="1">
       <c r="A46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="J46" s="4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" s="5" customFormat="1">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="J47" s="4">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" s="5" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1">
+      <c r="J48" s="4">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" s="5" customFormat="1">
       <c r="A49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" s="5" customFormat="1">
+      <c r="A50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1">
-      <c r="A50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I50" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1">
+      <c r="J50" s="4">
+        <v>0.747</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" s="5" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="4">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1">
+      <c r="J51" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" s="5" customFormat="1">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" s="4">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1">
+      <c r="J52" s="4">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" s="5" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1">
+      <c r="J53" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K53" s="4">
+        <v>3</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="4">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1">
+      <c r="J54" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" s="5" customFormat="1">
       <c r="A55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" s="4">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1">
+      <c r="J55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" s="5" customFormat="1">
       <c r="A56" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="4">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1">
+      <c r="J56" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" s="5" customFormat="1">
       <c r="A57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1">
+      <c r="J57" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="5" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1">
+      <c r="J58" s="4">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" s="5" customFormat="1">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1">
+      <c r="J59" s="4">
+        <v>1.069</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" s="5" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="4">
         <v>1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1">
+      <c r="J60" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" s="5" customFormat="1">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="4">
         <v>1</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I61" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1">
+      <c r="J61" s="4">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" s="5" customFormat="1">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I62" s="4">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1">
+      <c r="J62" s="4">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" s="5" customFormat="1">
       <c r="A63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1">
+      <c r="J63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" s="5" customFormat="1">
       <c r="A64" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1">
+      <c r="J64" s="4">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" s="5" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I65" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1">
+      <c r="J65" s="4">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" s="5" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1">
+      <c r="J66" s="4">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" s="5" customFormat="1">
       <c r="A67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="4">
         <v>8.8000000000000007</v>
       </c>
+      <c r="J67" s="4">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J67">
     <sortCondition ref="A2:A67"/>
     <sortCondition ref="B2:B67"/>
     <sortCondition ref="C2:C67"/>
@@ -2985,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD43BC5-10D5-4D9A-880E-3EE5F15C9405}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C30"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2999,9 +3552,10 @@
     <col min="6" max="6" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="9"/>
+    <col min="10" max="11" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3012,863 +3566,1043 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="12">
+        <v>1.6580226904376012</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="8">
         <v>3.5666666666666664</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4">
+        <v>1.546</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="8">
         <v>7.3400000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="8">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="8">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="8">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4">
+        <v>1.198</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4">
+        <v>1.145</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="8">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="8">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="8">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="8">
         <v>4.708333333333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="8">
         <v>2.5999999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="8">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4">
+        <v>1.042</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="11">
+        <v>1.492</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="8">
         <v>6.0666666666666664</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="8">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="8">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="8">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="8">
         <v>11.450000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="8">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" s="8">
         <v>8.8000000000000007</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3884,19 +4618,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8427B7-915A-4DEB-988E-99763DBC4FC9}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3910,803 +4646,981 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4">
+        <v>1.198</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="4">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4">
+        <v>1.145</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="4">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4">
+        <v>1.042</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="11">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4">
+        <v>1.423</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="6">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="4">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="4">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="4">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4">
+        <v>0.747</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="11">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="4">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="4">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="4">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="4">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="J25" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1">
+      <c r="J26" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1">
+      <c r="J27" s="4">
+        <v>1.069</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="4">
         <v>14.6</v>
       </c>
+      <c r="J28" s="4">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
